--- a/工作表.xlsx
+++ b/工作表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\project\多源翻译工具\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E36416F-C11B-4480-8168-7BFB4143EECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D07D35-43FC-4452-A7CA-E4E097908F49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4128" yWindow="1788" windowWidth="17280" windowHeight="9564" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="2988" windowWidth="17280" windowHeight="9564" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="需求分析" sheetId="1" r:id="rId1"/>
@@ -690,6 +690,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -773,6 +776,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1004,6 +1010,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1368,6 +1377,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2703,8 +2715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9149A1C0-5B80-469D-A2DD-F505E993D942}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/工作表.xlsx
+++ b/工作表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\project\多源翻译工具\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\project\多源翻译工具\Translater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D07D35-43FC-4452-A7CA-E4E097908F49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1296293-B601-41B0-8293-C46DB01873FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="2988" windowWidth="17280" windowHeight="9564" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1332" yWindow="6036" windowWidth="17280" windowHeight="9564" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="需求分析" sheetId="1" r:id="rId1"/>
@@ -181,6 +181,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -260,6 +263,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -475,6 +481,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1108,7 +1117,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
@@ -1131,12 +1140,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4648200" y="769620"/>
-          <a:ext cx="1760220" cy="662940"/>
+          <a:off x="4411980" y="769620"/>
+          <a:ext cx="1996440" cy="662940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1172,7 +1184,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>      Array&lt;String&gt; readIni();</a:t>
+            <a:t>      ArrayList&lt;String&gt; readIni();</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1281,6 +1293,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1312,7 +1327,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>      public map&lt;enum</a:t>
+            <a:t>      public Map&lt;Object</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
@@ -1320,7 +1335,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>&gt; howToRead(Array&lt;String&gt; Ini);</a:t>
+            <a:t>&gt; howToRead(ArrayList&lt;String&gt; Ini);</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1862,6 +1877,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1944,6 +1962,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2715,8 +2736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9149A1C0-5B80-469D-A2DD-F505E993D942}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/工作表.xlsx
+++ b/工作表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\project\多源翻译工具\Translater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1296293-B601-41B0-8293-C46DB01873FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E26FF91-9721-411C-8712-8ADF6F77B41A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1332" yWindow="6036" windowWidth="17280" windowHeight="9564" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2952" yWindow="3036" windowWidth="17280" windowHeight="9564" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="需求分析" sheetId="1" r:id="rId1"/>
@@ -860,7 +860,17 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>}</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>基础功能实现</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2662,9 +2672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2736,8 +2744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9149A1C0-5B80-469D-A2DD-F505E993D942}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/工作表.xlsx
+++ b/工作表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\project\多源翻译工具\Translater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E26FF91-9721-411C-8712-8ADF6F77B41A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9E1459-E418-4694-9C73-392EAE2C1D03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2952" yWindow="3036" windowWidth="17280" windowHeight="9564" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3768" yWindow="4428" windowWidth="17280" windowHeight="9564" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="需求分析" sheetId="1" r:id="rId1"/>
@@ -811,64 +811,116 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>public class ReadLineFromShortTxt implements LineReader {</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>        public String</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> readLine(dataName){</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>            //</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>从只有一句话的</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>txt</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>中读取的方法</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>        }</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>}</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>//</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>基础功能实现</a:t>
           </a:r>
         </a:p>
@@ -1194,7 +1246,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>      ArrayList&lt;String&gt; readIni();</a:t>
+            <a:t>      Map readIni();</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2744,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9149A1C0-5B80-469D-A2DD-F505E993D942}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/工作表.xlsx
+++ b/工作表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\project\多源翻译工具\Translater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9E1459-E418-4694-9C73-392EAE2C1D03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9CE327-5D5B-496B-AD6C-84C0A5DAAE18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3768" yWindow="4428" windowWidth="17280" windowHeight="9564" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3708" yWindow="2364" windowWidth="17280" windowHeight="9564" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="需求分析" sheetId="1" r:id="rId1"/>
@@ -1333,8 +1333,8 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1350,7 +1350,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10363200" y="167640"/>
-          <a:ext cx="3939540" cy="845820"/>
+          <a:ext cx="3939540" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1416,6 +1416,26 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>返回各种工作方式的枚举类的值</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>此类的功能已经准备合并入“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>IniReader</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>”中，请在稍后修改此表内容</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1560,8 +1580,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1580,7 +1600,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9014460" y="514350"/>
-          <a:ext cx="1348740" cy="76200"/>
+          <a:ext cx="1348740" cy="278130"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2796,7 +2816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9149A1C0-5B80-469D-A2DD-F505E993D942}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>

--- a/工作表.xlsx
+++ b/工作表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\project\多源翻译工具\Translater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9CE327-5D5B-496B-AD6C-84C0A5DAAE18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F3E194-FB54-4C72-8AE3-1E43292AF543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3708" yWindow="2364" windowWidth="17280" windowHeight="9564" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2364" yWindow="1368" windowWidth="17280" windowHeight="9564" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="需求分析" sheetId="1" r:id="rId1"/>
@@ -1130,8 +1130,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1150,7 +1150,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="6408420" y="514350"/>
-          <a:ext cx="1318260" cy="586740"/>
+          <a:ext cx="1318260" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1186,8 +1186,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1203,7 +1203,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4411980" y="769620"/>
-          <a:ext cx="1996440" cy="662940"/>
+          <a:ext cx="1996440" cy="1051560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1255,7 +1255,25 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>}</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>此类另外实现了原定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Judgement</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>所需实现的方法</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1427,7 +1445,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>此类的功能已经准备合并入“</a:t>
+            <a:t>此类的功能已经合并入“</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -1806,13 +1824,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
@@ -1826,13 +1844,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
           <a:endCxn id="87" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7719060" y="739140"/>
-          <a:ext cx="15240" cy="906780"/>
+        <a:xfrm flipH="1">
+          <a:off x="7734300" y="845820"/>
+          <a:ext cx="636270" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2816,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9149A1C0-5B80-469D-A2DD-F505E993D942}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/工作表.xlsx
+++ b/工作表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\project\多源翻译工具\Translater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F3E194-FB54-4C72-8AE3-1E43292AF543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1209880-D0AB-45C1-A6B0-2D801B2D1FDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2364" yWindow="1368" windowWidth="17280" windowHeight="9564" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1620" windowWidth="17280" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="需求分析" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>基本需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,10 @@
   </si>
   <si>
     <t>可以通过选择使用哪种翻译器翻译的结果将其短句连接起来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用xml进行配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2761,9 +2765,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2824,6 +2830,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2835,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9149A1C0-5B80-469D-A2DD-F505E993D942}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/工作表.xlsx
+++ b/工作表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\project\多源翻译工具\Translater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1209880-D0AB-45C1-A6B0-2D801B2D1FDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1316BA43-FFFB-4ADA-B487-6BF607EA5B21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1620" windowWidth="17280" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1344" yWindow="1284" windowWidth="17280" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="需求分析" sheetId="1" r:id="rId1"/>
@@ -109,12 +109,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -129,9 +135,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2768,7 +2777,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2777,7 +2786,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2788,10 +2797,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2799,7 +2808,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
